--- a/public/data/yield_loss/yield_table_cote_d_ivoire.xlsx
+++ b/public/data/yield_loss/yield_table_cote_d_ivoire.xlsx
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>437.83</v>
+        <v>390.07</v>
       </c>
       <c r="G2" t="n">
         <v>1277.78</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1352.84</v>
+        <v>1213.7</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1531.72</v>
+        <v>1531.47</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4.21</v>
+        <v>4.02</v>
       </c>
       <c r="V2" t="n">
         <v>148.93</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6595.81</v>
+        <v>3611.41</v>
       </c>
       <c r="G3" t="n">
         <v>5388.59</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>17767.38</v>
+        <v>9765.88</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3881.46</v>
+        <v>3843.91</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130.98</v>
+        <v>129.07</v>
       </c>
       <c r="U3" t="n">
-        <v>65.82</v>
+        <v>43.16</v>
       </c>
       <c r="V3" t="n">
         <v>3521.88</v>
       </c>
       <c r="W3" t="n">
-        <v>1169.8</v>
+        <v>1169.79</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8264.68</v>
+        <v>4724.68</v>
       </c>
       <c r="G4" t="n">
         <v>7113.85</v>
@@ -1453,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24088.49</v>
+        <v>13081.78</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4753.99</v>
+        <v>4709.04</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>152.87</v>
+        <v>151.83</v>
       </c>
       <c r="U4" t="n">
-        <v>73.99</v>
+        <v>49.92</v>
       </c>
       <c r="V4" t="n">
         <v>4072.67</v>
       </c>
       <c r="W4" t="n">
-        <v>1667.46</v>
+        <v>1666.72</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17501.14</v>
+        <v>6564.97</v>
       </c>
       <c r="G5" t="n">
         <v>20315.83</v>
@@ -1524,22 +1524,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>32067.98</v>
+        <v>32067.88</v>
       </c>
       <c r="J5" t="n">
-        <v>5154.9</v>
+        <v>5154.88</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>48449.3</v>
+        <v>17989.9</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>10691.39</v>
+        <v>9361.89</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1551,22 +1551,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3302.02</v>
+        <v>3301.98</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>24.37</v>
+        <v>24.15</v>
       </c>
       <c r="U5" t="n">
-        <v>371.12</v>
+        <v>163.25</v>
       </c>
       <c r="V5" t="n">
-        <v>16892.42</v>
+        <v>16892.39</v>
       </c>
       <c r="W5" t="n">
-        <v>3659.35</v>
+        <v>3627.92</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3167.98</v>
+        <v>2920.53</v>
       </c>
       <c r="G6" t="n">
         <v>775.96</v>
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>8134.79</v>
+        <v>7336.5</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4047.97</v>
+        <v>4046.72</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>24.89</v>
       </c>
       <c r="U6" t="n">
-        <v>22.45</v>
+        <v>21.94</v>
       </c>
       <c r="V6" t="n">
         <v>1086.22</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1808.39</v>
+        <v>1535.17</v>
       </c>
       <c r="G7" t="n">
         <v>8109.49</v>
@@ -1693,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5656.29</v>
+        <v>4680.9</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>7302.47</v>
+        <v>7298.26</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9.88</v>
+        <v>9.58</v>
       </c>
       <c r="V7" t="n">
         <v>471.95</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>61.72</v>
+        <v>61.7</v>
       </c>
       <c r="G9" t="n">
         <v>0.7</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>173.43</v>
+        <v>173.4</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>916.97</v>
+        <v>889.3</v>
       </c>
       <c r="G10" t="n">
         <v>60</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2330.97</v>
+        <v>2266.02</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>5.12</v>
       </c>
       <c r="U10" t="n">
-        <v>5.45</v>
+        <v>5.32</v>
       </c>
       <c r="V10" t="n">
         <v>88.32</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2222.5</v>
+        <v>2082.56</v>
       </c>
       <c r="G11" t="n">
         <v>1015.32</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5884.29</v>
+        <v>5512.53</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>2.44</v>
       </c>
       <c r="U11" t="n">
-        <v>15.17</v>
+        <v>14.64</v>
       </c>
       <c r="V11" t="n">
         <v>453.01</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>585.34</v>
+        <v>585.27</v>
       </c>
       <c r="G13" t="n">
         <v>0.16</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1392.53</v>
+        <v>1392.38</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>971.78</v>
+        <v>963.13</v>
       </c>
       <c r="G14" t="n">
         <v>10.11</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2163.08</v>
+        <v>2146.73</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>101.35</v>
       </c>
       <c r="U14" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="V14" t="n">
         <v>57.09</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>995.93</v>
+        <v>915.14</v>
       </c>
       <c r="G16" t="n">
         <v>1096.17</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3035.31</v>
+        <v>2750.37</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>2.71</v>
       </c>
       <c r="U16" t="n">
-        <v>5.32</v>
+        <v>4.92</v>
       </c>
       <c r="V16" t="n">
         <v>127.66</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1433.55</v>
+        <v>1160.44</v>
       </c>
       <c r="G17" t="n">
         <v>5078.09</v>
@@ -2493,19 +2493,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4283.6</v>
+        <v>3478.33</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4661.9</v>
+        <v>4652.99</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11.21</v>
+        <v>10.52</v>
       </c>
       <c r="V17" t="n">
         <v>1262.75</v>
       </c>
       <c r="W17" t="n">
-        <v>398.59</v>
+        <v>398.58</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2314.15</v>
+        <v>1816.98</v>
       </c>
       <c r="G18" t="n">
         <v>1601.6</v>
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>6656.71</v>
+        <v>5147.65</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1808.33</v>
+        <v>1807.95</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>12.02</v>
       </c>
       <c r="U18" t="n">
-        <v>16.76</v>
+        <v>14.59</v>
       </c>
       <c r="V18" t="n">
         <v>1198.44</v>
       </c>
       <c r="W18" t="n">
-        <v>506.06</v>
+        <v>506.05</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>7184</v>
+        <v>2479.63</v>
       </c>
       <c r="G19" t="n">
         <v>3539.68</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>19789.62</v>
+        <v>7202.48</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>8402.44</v>
+        <v>7972.44</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2677,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>62.24</v>
+        <v>61.27</v>
       </c>
       <c r="U19" t="n">
-        <v>356.2</v>
+        <v>122.86</v>
       </c>
       <c r="V19" t="n">
         <v>11447.08</v>
       </c>
       <c r="W19" t="n">
-        <v>1063.69</v>
+        <v>1052.86</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2057.14</v>
+        <v>1691.05</v>
       </c>
       <c r="G20" t="n">
         <v>1294.63</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5918.55</v>
+        <v>4779.69</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>40.46</v>
       </c>
       <c r="U20" t="n">
-        <v>17.5</v>
+        <v>14.96</v>
       </c>
       <c r="V20" t="n">
         <v>400.49</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1431.27</v>
+        <v>937.4</v>
       </c>
       <c r="G21" t="n">
         <v>2440.16</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>5406.61</v>
+        <v>3605.56</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>4.19</v>
       </c>
       <c r="U21" t="n">
-        <v>26.57</v>
+        <v>23.46</v>
       </c>
       <c r="V21" t="n">
         <v>457.48</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1556.74</v>
+        <v>1556.73</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>480.26</v>
+        <v>480.18</v>
       </c>
       <c r="G34" t="n">
         <v>16.18</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1234.47</v>
+        <v>1234.29</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
